--- a/11.xlsx
+++ b/11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBaseJson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBaseJson\PythonDBjson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9633B58-938D-4F63-87FD-E3C67C606372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0F033-9115-48F9-9683-0EEF5346D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="585" windowWidth="23325" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -46,16 +46,55 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>dfgs42343</t>
+  </si>
+  <si>
+    <t>dfgs42344</t>
+  </si>
+  <si>
+    <t>dfgs42345</t>
+  </si>
+  <si>
+    <t>dfgs42346</t>
+  </si>
+  <si>
+    <t>dfgs42347</t>
+  </si>
+  <si>
+    <t>dfgs42348</t>
+  </si>
+  <si>
+    <t>dfgs42349</t>
+  </si>
+  <si>
+    <t>dfgs42350</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>234dfsfs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +438,232 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-387</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-417</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-447</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>